--- a/Consultant_Active_Reports/Active_Candidates_Gabriel_Inema.xlsx
+++ b/Consultant_Active_Reports/Active_Candidates_Gabriel_Inema.xlsx
@@ -481,7 +481,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -506,7 +506,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
@@ -581,7 +581,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>3rd Interview</t>
         </is>
       </c>
     </row>
@@ -631,7 +631,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
@@ -656,7 +656,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1st Interview</t>
+          <t>2nd Interview</t>
         </is>
       </c>
     </row>
